--- a/tematerv.xlsx
+++ b/tematerv.xlsx
@@ -5,29 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\egyetem\II.semester\webterv\projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanni\WebstormProjects\MoZi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8DEF8C-F8BD-4F5F-A053-3736B038A989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877AC5BE-7324-476B-846E-CD05EC2227A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12750" windowHeight="10200" xr2:uid="{46E65F67-6F1A-4B7B-AA3B-257633B4506B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{46E65F67-6F1A-4B7B-AA3B-257633B4506B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tématerv" sheetId="1" r:id="rId1"/>
     <sheet name="1. mérföldkő" sheetId="2" r:id="rId2"/>
     <sheet name="2. mérföldkő" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="145">
   <si>
     <t>Webterv projektmunka</t>
   </si>
@@ -60,12 +71,6 @@
   </si>
   <si>
     <t>A felhasználó az oldalra tud regisztrálni, illetve be tud jelentkezni. A profil oldalon a felhasználó megtekintheti az adatait.</t>
-  </si>
-  <si>
-    <t>Témanév (todo)</t>
-  </si>
-  <si>
-    <t>téma részletes leírása (todo)</t>
   </si>
   <si>
     <t>Az oldal regisztrációs, illetve bejelentkezési felületét tartalmazó oldal(ak)</t>
@@ -434,62 +439,72 @@
     <t>Értékelés</t>
   </si>
   <si>
-    <t>Bemutató oldal</t>
-  </si>
-  <si>
-    <t>Be lehet regisztrálni, illetve jelentkezni a felületre</t>
-  </si>
-  <si>
     <t>Filmek listája</t>
   </si>
   <si>
-    <t>Ha a felhasználó be van jelentkezve itt tud választani, hogy mit szeretne tenni. Ha véleményt szeretne olvasni/ írni vagy értékelni például a színészeket</t>
-  </si>
-  <si>
     <t>Profil oldal</t>
   </si>
   <si>
-    <t>A felhasználó itt tudja megtekinteni adatit, illetve az áltaka</t>
-  </si>
-  <si>
-    <t>Színész értékelés és vélemények</t>
-  </si>
-  <si>
-    <t>Ezen az oldalon lehet értékelni a színészeket, illetve írni- és olvasni a véleményeket az adott filmmel kapcsolatban.</t>
-  </si>
-  <si>
     <t>Admin felület</t>
   </si>
   <si>
-    <t>Itt tudják az adminok módosítani dolgokat, hozzáadni o</t>
-  </si>
-  <si>
-    <t>Itt lehet likel-ni illetve értékelni a filmeket és a színészeket is. Lehet kommentelni is bizonyos értékelések alá, beszélgetést elindítani.</t>
-  </si>
-  <si>
-    <t>Saját fiók</t>
-  </si>
-  <si>
-    <t>Itt tudjuk megtekinteni a korábbi tevékenységeinket és akár módosítani is tudunk rajtuk.</t>
-  </si>
-  <si>
     <t>Admin funkciók</t>
   </si>
   <si>
     <t>Itt lehet moderálni az oldalon történő tevékenységeket, illetve törölni is lehet akár filmeket, vagy hozzáadni újakat.</t>
+  </si>
+  <si>
+    <t>Film bővebben</t>
+  </si>
+  <si>
+    <t>Lehet lájkolni, illetve értékelni a filmeket. A felhasználó a saját értékeléseit tudja törölni, módosítani.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat </t>
+  </si>
+  <si>
+    <t>A felhasználó itt tudja megtekinteni adatit, illetve az általa lájkolt filmeket, értékeléseit, beszélgetéseit.</t>
+  </si>
+  <si>
+    <t>Privátban lehet beszélgetnii, lehet képet, fájlt küldeni, saját üzenetet, beszélgetést törölni.</t>
+  </si>
+  <si>
+    <t>A felhasználó ki tud választani egy filmet, ha be van jelentkezve, tudja a filmeket lájkolni. Ez a főoldal, innen lehet bejelentkezni/regisztrálni.</t>
+  </si>
+  <si>
+    <t>A felhasználó meg tudja nézni a film adatait, tud értékelést írni, olvasni, egy profilképre kattintva tud privát üzenetet küldeni, meg tudja nézni a trailert.</t>
+  </si>
+  <si>
+    <t>Itt tudnak az adminok módosítani dolgokat, hozzáadni filmeket, értékeléseket törölni.</t>
+  </si>
+  <si>
+    <t>Lehet privát üzenetet küldeni, meg tudjuk tekinteni a beszélgetéseinket, tudunk üzenetet, beszélgetést törölni.</t>
+  </si>
+  <si>
+    <t>Filmek</t>
+  </si>
+  <si>
+    <t>Online platform, ahol tudunk filmeket véleményezni, beszélni másokkal. A felhasználó meg tudja tekinteni adatait, tevékenységét, beszélgetéseit. Az admin tud moderálni, új filmeket feltölteni, filmeket törölni.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1315,12 +1330,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,14 +1362,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1363,22 +1378,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1388,20 +1403,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1410,34 +1425,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1457,112 +1472,26 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1576,6 +1505,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1585,70 +1526,100 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1659,17 +1630,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1677,71 +1678,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bevitel" xfId="1" builtinId="20"/>
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Százalék" xfId="2" builtinId="5"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="45">
     <dxf>
@@ -2482,573 +2501,569 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74490021-BD96-470B-A9FE-A6235297CB35}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:M30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="9.1796875" customWidth="1"/>
-    <col min="12" max="13" width="9.7265625" customWidth="1"/>
-    <col min="14" max="14" width="84.7265625" customWidth="1"/>
+    <col min="11" max="11" width="9.19921875" customWidth="1"/>
+    <col min="12" max="13" width="9.73046875" customWidth="1"/>
+    <col min="14" max="14" width="84.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
-    </row>
-    <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
+    </row>
+    <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="58" t="s">
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="58" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="M2" s="61"/>
-    </row>
-    <row r="3" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="62"/>
-    </row>
-    <row r="4" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
+      <c r="M3" s="82"/>
+    </row>
+    <row r="4" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-    </row>
-    <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-    </row>
-    <row r="6" spans="1:13" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-    </row>
-    <row r="7" spans="1:13" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-    </row>
-    <row r="8" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+    </row>
+    <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+    </row>
+    <row r="6" spans="1:13" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="1:13" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="68"/>
+    </row>
+    <row r="8" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="67"/>
-    </row>
-    <row r="9" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
-    </row>
-    <row r="10" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+    </row>
+    <row r="9" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
+    </row>
+    <row r="10" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="73"/>
-    </row>
-    <row r="11" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
-    </row>
-    <row r="12" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
+    </row>
+    <row r="12" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
-    </row>
-    <row r="13" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
-    </row>
-    <row r="14" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
+    </row>
+    <row r="14" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="73"/>
-    </row>
-    <row r="15" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
-    </row>
-    <row r="16" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="59"/>
+    </row>
+    <row r="16" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
-    </row>
-    <row r="17" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
-    </row>
-    <row r="18" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
+    </row>
+    <row r="17" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
+    </row>
+    <row r="18" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
-    </row>
-    <row r="19" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="70"/>
-    </row>
-    <row r="20" spans="1:13" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
-    </row>
-    <row r="21" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
+    </row>
+    <row r="20" spans="1:13" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="68"/>
+    </row>
+    <row r="21" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
-    </row>
-    <row r="22" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="80" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
+    </row>
+    <row r="22" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
-    </row>
-    <row r="23" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
+    </row>
+    <row r="23" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="73"/>
-    </row>
-    <row r="24" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
-    </row>
-    <row r="25" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
+    </row>
+    <row r="25" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="53"/>
+    </row>
+    <row r="26" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="73"/>
-    </row>
-    <row r="26" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="70"/>
-    </row>
-    <row r="27" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
+    </row>
+    <row r="27" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="73"/>
-    </row>
-    <row r="28" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
-    </row>
-    <row r="29" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
+    </row>
+    <row r="28" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="59"/>
+    </row>
+    <row r="29" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="73"/>
-    </row>
-    <row r="30" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="79"/>
+      <c r="B29" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
+    </row>
+    <row r="30" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jranBdqHXxz3Ufn0yLspeTVjx9YRIN/i7o5eKuelTMvRMcUx0B3LYLl9q+BazUTvT55ALFmVHVnsnwsJQC728w==" saltValue="EGrx7zHEeEKPPb7IxE+a/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="33">
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="B8:M8"/>
     <mergeCell ref="A20:M20"/>
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="B10:M10"/>
@@ -3056,17 +3071,21 @@
     <mergeCell ref="B14:M14"/>
     <mergeCell ref="B16:M16"/>
     <mergeCell ref="B18:M18"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B29:M29"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD7 A8:B8 N8:XFD8 A9:XFD9 A10:B10 N10:XFD10 A11:XFD11 A12:B12 N12:XFD12 A13:XFD13 A14:B14 N14:XFD14 A15:XFD15 A16:B16 N16:XFD16 A17:XFD17 A18:B18 N18:XFD18 A19:XFD20 A21:B21 N21:XFD21 A22:XFD22 A23:B23 N23:XFD23 A24:XFD24 A25:B25 N25:XFD25 A26:XFD26 A27:B27 N27:XFD27 A28:XFD28 A29:B29 N29:XFD29 A30:XFD1048576">
     <cfRule type="expression" dxfId="44" priority="1">
@@ -3082,190 +3101,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0A858C-EBB9-4215-AEAE-F077DA2634F6}">
   <dimension ref="A1:ZZ115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="24"/>
-    <col min="2" max="10" width="9.1796875" style="4"/>
-    <col min="11" max="11" width="9.1796875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="84.7265625" style="10" customWidth="1"/>
-    <col min="702" max="702" width="9.1796875" style="27"/>
+    <col min="1" max="1" width="9.19921875" style="24"/>
+    <col min="2" max="10" width="9.19921875" style="4"/>
+    <col min="11" max="11" width="9.19921875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.73046875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="84.73046875" style="10" customWidth="1"/>
+    <col min="702" max="702" width="9.19921875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="118"/>
-    </row>
-    <row r="2" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
+    </row>
+    <row r="2" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
       <c r="M2" s="44"/>
       <c r="N2" s="13"/>
       <c r="ZZ2" s="28"/>
     </row>
-    <row r="3" spans="1:702" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:702" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="106"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="45"/>
       <c r="N3" s="13"/>
       <c r="ZZ3" s="28"/>
     </row>
-    <row r="4" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="106"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="92"/>
       <c r="M4" s="45"/>
     </row>
-    <row r="5" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="106"/>
+        <v>27</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
       <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:702" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="98"/>
+    </row>
+    <row r="9" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:702" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="125" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="124"/>
-    </row>
-    <row r="9" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="65" t="str">
+      <c r="B9" s="48" t="str">
         <f>Tématerv!B8</f>
         <v>Bejelentkezés / Regisztráció</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="103"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="99"/>
       <c r="L9" s="2">
         <f>SUM(L11:L14)</f>
         <v>5.5</v>
@@ -3275,40 +3294,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="108" t="str">
+    <row r="10" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="93" t="str">
         <f>Tématerv!A9</f>
         <v>Az oldal regisztrációs, illetve bejelentkezési felületét tartalmazó oldal(ak)</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="110"/>
-    </row>
-    <row r="11" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="95"/>
+    </row>
+    <row r="11" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
+        <v>34</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
       <c r="L11" s="7">
         <v>0.5</v>
       </c>
@@ -3316,22 +3335,22 @@
       <c r="N11" s="13"/>
       <c r="ZZ11" s="28"/>
     </row>
-    <row r="12" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
+        <v>35</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
       <c r="L12" s="7">
         <v>1</v>
       </c>
@@ -3339,22 +3358,22 @@
       <c r="N12" s="11"/>
       <c r="ZZ12" s="28"/>
     </row>
-    <row r="13" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
+        <v>36</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
       <c r="L13" s="7">
         <v>2</v>
       </c>
@@ -3362,22 +3381,22 @@
       <c r="N13" s="11"/>
       <c r="ZZ13" s="28"/>
     </row>
-    <row r="14" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
+        <v>37</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
       <c r="L14" s="9">
         <v>2</v>
       </c>
@@ -3385,23 +3404,23 @@
       <c r="N14" s="11"/>
       <c r="ZZ14" s="28"/>
     </row>
-    <row r="15" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="65" t="str">
+        <v>17</v>
+      </c>
+      <c r="B15" s="48" t="str">
         <f>Tématerv!B10</f>
-        <v>Bemutató oldal</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="103"/>
+        <v xml:space="preserve">Chat </v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="99"/>
       <c r="L15" s="2">
         <f>SUM(L17:L20)</f>
         <v>5.5</v>
@@ -3411,40 +3430,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108" t="str">
+    <row r="16" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="93" t="str">
         <f>Tématerv!A11</f>
-        <v>Be lehet regisztrálni, illetve jelentkezni a felületre</v>
-      </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="110"/>
-    </row>
-    <row r="17" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Privátban lehet beszélgetnii, lehet képet, fájlt küldeni, saját üzenetet, beszélgetést törölni.</v>
+      </c>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="95"/>
+    </row>
+    <row r="17" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
+        <v>38</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
       <c r="L17" s="7">
         <v>0.5</v>
       </c>
@@ -3452,22 +3471,22 @@
       <c r="N17" s="11"/>
       <c r="ZZ17" s="28"/>
     </row>
-    <row r="18" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
+        <v>39</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
       <c r="L18" s="7">
         <v>1</v>
       </c>
@@ -3475,22 +3494,22 @@
       <c r="N18" s="11"/>
       <c r="ZZ18" s="28"/>
     </row>
-    <row r="19" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
+        <v>40</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
       <c r="L19" s="7">
         <v>2</v>
       </c>
@@ -3498,22 +3517,22 @@
       <c r="N19" s="11"/>
       <c r="ZZ19" s="28"/>
     </row>
-    <row r="20" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
+        <v>41</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
       <c r="L20" s="9">
         <v>2</v>
       </c>
@@ -3521,23 +3540,23 @@
       <c r="N20" s="11"/>
       <c r="ZZ20" s="28"/>
     </row>
-    <row r="21" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="65" t="str">
+        <v>18</v>
+      </c>
+      <c r="B21" s="48" t="str">
         <f>Tématerv!B12</f>
         <v>Filmek listája</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="103"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="99"/>
       <c r="L21" s="2">
         <f>SUM(L23:L26)</f>
         <v>5.5</v>
@@ -3547,40 +3566,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="108" t="str">
+    <row r="22" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="93" t="str">
         <f>Tématerv!A13</f>
-        <v>Ha a felhasználó be van jelentkezve itt tud választani, hogy mit szeretne tenni. Ha véleményt szeretne olvasni/ írni vagy értékelni például a színészeket</v>
-      </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="110"/>
-    </row>
-    <row r="23" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>A felhasználó ki tud választani egy filmet, ha be van jelentkezve, tudja a filmeket lájkolni. Ez a főoldal, innen lehet bejelentkezni/regisztrálni.</v>
+      </c>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="95"/>
+    </row>
+    <row r="23" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
+        <v>42</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
       <c r="L23" s="7">
         <v>0.5</v>
       </c>
@@ -3588,22 +3607,22 @@
       <c r="N23" s="11"/>
       <c r="ZZ23" s="28"/>
     </row>
-    <row r="24" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
+        <v>43</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
       <c r="L24" s="7">
         <v>1</v>
       </c>
@@ -3611,22 +3630,22 @@
       <c r="N24" s="11"/>
       <c r="ZZ24" s="28"/>
     </row>
-    <row r="25" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
+        <v>44</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
       <c r="L25" s="7">
         <v>2</v>
       </c>
@@ -3634,22 +3653,22 @@
       <c r="N25" s="11"/>
       <c r="ZZ25" s="28"/>
     </row>
-    <row r="26" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
+        <v>45</v>
+      </c>
+      <c r="B26" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
       <c r="L26" s="9">
         <v>2</v>
       </c>
@@ -3657,23 +3676,23 @@
       <c r="N26" s="11"/>
       <c r="ZZ26" s="28"/>
     </row>
-    <row r="27" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="65" t="str">
+        <v>19</v>
+      </c>
+      <c r="B27" s="48" t="str">
         <f>Tématerv!B14</f>
         <v>Profil oldal</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="103"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="99"/>
       <c r="L27" s="2">
         <f>SUM(L29:L32)</f>
         <v>5.5</v>
@@ -3683,40 +3702,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="108" t="str">
+    <row r="28" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="93" t="str">
         <f>Tématerv!A15</f>
-        <v>A felhasználó itt tudja megtekinteni adatit, illetve az áltaka</v>
-      </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="110"/>
-    </row>
-    <row r="29" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>A felhasználó itt tudja megtekinteni adatit, illetve az általa lájkolt filmeket, értékeléseit, beszélgetéseit.</v>
+      </c>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="95"/>
+    </row>
+    <row r="29" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
+        <v>46</v>
+      </c>
+      <c r="B29" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
       <c r="L29" s="7">
         <v>0.5</v>
       </c>
@@ -3724,22 +3743,22 @@
       <c r="N29" s="11"/>
       <c r="ZZ29" s="28"/>
     </row>
-    <row r="30" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
+        <v>47</v>
+      </c>
+      <c r="B30" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
       <c r="L30" s="7">
         <v>1</v>
       </c>
@@ -3747,22 +3766,22 @@
       <c r="N30" s="11"/>
       <c r="ZZ30" s="28"/>
     </row>
-    <row r="31" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
+        <v>48</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
       <c r="L31" s="7">
         <v>2</v>
       </c>
@@ -3770,22 +3789,22 @@
       <c r="N31" s="11"/>
       <c r="ZZ31" s="28"/>
     </row>
-    <row r="32" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
+        <v>49</v>
+      </c>
+      <c r="B32" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
       <c r="L32" s="9">
         <v>2</v>
       </c>
@@ -3793,23 +3812,23 @@
       <c r="N32" s="11"/>
       <c r="ZZ32" s="28"/>
     </row>
-    <row r="33" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="65" t="str">
+        <v>28</v>
+      </c>
+      <c r="B33" s="48" t="str">
         <f>Tématerv!B16</f>
-        <v>Színész értékelés és vélemények</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="103"/>
+        <v>Film bővebben</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="99"/>
       <c r="L33" s="2">
         <f>SUM(L35:L38)</f>
         <v>5.5</v>
@@ -3819,40 +3838,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="108" t="str">
+    <row r="34" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="93" t="str">
         <f>Tématerv!A17</f>
-        <v>Ezen az oldalon lehet értékelni a színészeket, illetve írni- és olvasni a véleményeket az adott filmmel kapcsolatban.</v>
-      </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="110"/>
-    </row>
-    <row r="35" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>A felhasználó meg tudja nézni a film adatait, tud értékelést írni, olvasni, egy profilképre kattintva tud privát üzenetet küldeni, meg tudja nézni a trailert.</v>
+      </c>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="95"/>
+    </row>
+    <row r="35" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
+        <v>50</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
       <c r="L35" s="7">
         <v>0.5</v>
       </c>
@@ -3860,22 +3879,22 @@
       <c r="N35" s="11"/>
       <c r="ZZ35" s="28"/>
     </row>
-    <row r="36" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
+        <v>51</v>
+      </c>
+      <c r="B36" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
       <c r="L36" s="7">
         <v>1</v>
       </c>
@@ -3883,22 +3902,22 @@
       <c r="N36" s="11"/>
       <c r="ZZ36" s="28"/>
     </row>
-    <row r="37" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
+        <v>52</v>
+      </c>
+      <c r="B37" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
       <c r="L37" s="7">
         <v>2</v>
       </c>
@@ -3906,22 +3925,22 @@
       <c r="N37" s="11"/>
       <c r="ZZ37" s="28"/>
     </row>
-    <row r="38" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
+        <v>53</v>
+      </c>
+      <c r="B38" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
       <c r="L38" s="9">
         <v>2</v>
       </c>
@@ -3929,23 +3948,23 @@
       <c r="N38" s="11"/>
       <c r="ZZ38" s="28"/>
     </row>
-    <row r="39" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="65" t="str">
+      <c r="B39" s="48" t="str">
         <f>Tématerv!B18</f>
         <v>Admin felület</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="103"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="99"/>
       <c r="L39" s="2">
         <f>SUM(L41:L44)</f>
         <v>5.5</v>
@@ -3955,40 +3974,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="108" t="str">
+    <row r="40" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="93" t="str">
         <f>Tématerv!A19</f>
-        <v>Itt tudják az adminok módosítani dolgokat, hozzáadni o</v>
-      </c>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="110"/>
-    </row>
-    <row r="41" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Itt tudnak az adminok módosítani dolgokat, hozzáadni filmeket, értékeléseket törölni.</v>
+      </c>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="95"/>
+    </row>
+    <row r="41" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
+        <v>54</v>
+      </c>
+      <c r="B41" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
       <c r="L41" s="7">
         <v>0.5</v>
       </c>
@@ -3996,22 +4015,22 @@
       <c r="N41" s="11"/>
       <c r="ZZ41" s="28"/>
     </row>
-    <row r="42" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
+        <v>55</v>
+      </c>
+      <c r="B42" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
       <c r="L42" s="7">
         <v>1</v>
       </c>
@@ -4019,22 +4038,22 @@
       <c r="N42" s="11"/>
       <c r="ZZ42" s="28"/>
     </row>
-    <row r="43" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
+        <v>56</v>
+      </c>
+      <c r="B43" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
       <c r="L43" s="7">
         <v>2</v>
       </c>
@@ -4042,22 +4061,22 @@
       <c r="N43" s="11"/>
       <c r="ZZ43" s="28"/>
     </row>
-    <row r="44" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
+        <v>57</v>
+      </c>
+      <c r="B44" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
       <c r="L44" s="9">
         <v>2</v>
       </c>
@@ -4065,40 +4084,40 @@
       <c r="N44" s="11"/>
       <c r="ZZ44" s="28"/>
     </row>
-    <row r="45" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="115"/>
+    <row r="45" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="106"/>
       <c r="ZZ45" s="28"/>
     </row>
-    <row r="46" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="103"/>
+      <c r="B46" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="99"/>
       <c r="L46" s="2">
         <f>SUM(ZZ47:ZZ52)</f>
         <v>27</v>
@@ -4109,24 +4128,24 @@
       </c>
       <c r="ZZ46" s="28"/>
     </row>
-    <row r="47" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
+        <v>20</v>
+      </c>
+      <c r="B47" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
       <c r="L47" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M47" s="45"/>
       <c r="N47" s="11"/>
@@ -4135,24 +4154,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
+        <v>21</v>
+      </c>
+      <c r="B48" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
       <c r="L48" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M48" s="45"/>
       <c r="N48" s="11"/>
@@ -4161,24 +4180,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
+        <v>22</v>
+      </c>
+      <c r="B49" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
       <c r="L49" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M49" s="45"/>
       <c r="N49" s="11"/>
@@ -4187,24 +4206,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
+        <v>29</v>
+      </c>
+      <c r="B50" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
       <c r="L50" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M50" s="45"/>
       <c r="N50" s="11"/>
@@ -4213,24 +4232,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
+        <v>58</v>
+      </c>
+      <c r="B51" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="86"/>
       <c r="L51" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M51" s="45"/>
       <c r="N51" s="11"/>
@@ -4239,24 +4258,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
+        <v>59</v>
+      </c>
+      <c r="B52" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="100"/>
       <c r="L52" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M52" s="46"/>
       <c r="N52" s="11"/>
@@ -4265,43 +4284,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="50"/>
+    <row r="53" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="68"/>
       <c r="ZZ53" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="103"/>
+      <c r="B54" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="99"/>
       <c r="L54" s="2">
         <f>SUM(L55:L58)</f>
         <v>4</v>
@@ -4312,22 +4331,22 @@
       </c>
       <c r="ZZ54" s="28"/>
     </row>
-    <row r="55" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
+        <v>23</v>
+      </c>
+      <c r="B55" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="86"/>
       <c r="L55" s="7">
         <v>1</v>
       </c>
@@ -4335,22 +4354,22 @@
       <c r="N55" s="11"/>
       <c r="ZZ55" s="28"/>
     </row>
-    <row r="56" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
+        <v>24</v>
+      </c>
+      <c r="B56" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="86"/>
       <c r="L56" s="7">
         <v>1</v>
       </c>
@@ -4358,22 +4377,22 @@
       <c r="N56" s="11"/>
       <c r="ZZ56" s="28"/>
     </row>
-    <row r="57" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="111"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="111"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="111"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="111"/>
-      <c r="K57" s="111"/>
+        <v>25</v>
+      </c>
+      <c r="B57" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="107"/>
       <c r="L57" s="14">
         <v>1</v>
       </c>
@@ -4381,22 +4400,22 @@
       <c r="N57" s="11"/>
       <c r="ZZ57" s="28"/>
     </row>
-    <row r="58" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="107" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
-      <c r="J58" s="107"/>
-      <c r="K58" s="107"/>
+        <v>30</v>
+      </c>
+      <c r="B58" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
       <c r="L58" s="9">
         <v>1</v>
       </c>
@@ -4404,39 +4423,39 @@
       <c r="N58" s="11"/>
       <c r="ZZ58" s="28"/>
     </row>
-    <row r="59" spans="1:702" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="50"/>
-    </row>
-    <row r="60" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:702" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="68"/>
+    </row>
+    <row r="60" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="111"/>
-      <c r="D60" s="111"/>
-      <c r="E60" s="111"/>
-      <c r="F60" s="111"/>
-      <c r="G60" s="111"/>
-      <c r="H60" s="111"/>
-      <c r="I60" s="111"/>
-      <c r="J60" s="111"/>
-      <c r="K60" s="111"/>
+      <c r="B60" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="107"/>
       <c r="L60" s="14">
         <v>0</v>
       </c>
@@ -4447,22 +4466,22 @@
       <c r="N60" s="11"/>
       <c r="ZZ60" s="28"/>
     </row>
-    <row r="61" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="112"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="112"/>
-      <c r="K61" s="112"/>
+      <c r="B61" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="108"/>
       <c r="L61" s="39">
         <f>SUM(L9,L15,L21,L27,L33,L39)</f>
         <v>33</v>
@@ -4474,22 +4493,22 @@
       <c r="N61" s="11"/>
       <c r="ZZ61" s="28"/>
     </row>
-    <row r="62" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="87"/>
-      <c r="J62" s="87"/>
-      <c r="K62" s="87"/>
+      <c r="B62" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="86"/>
       <c r="L62" s="7">
         <f>L46</f>
         <v>27</v>
@@ -4501,22 +4520,22 @@
       <c r="N62" s="11"/>
       <c r="ZZ62" s="28"/>
     </row>
-    <row r="63" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
+      <c r="B63" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="86"/>
+      <c r="I63" s="86"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="86"/>
       <c r="L63" s="7">
         <f>L54</f>
         <v>4</v>
@@ -4528,22 +4547,22 @@
       <c r="N63" s="11"/>
       <c r="ZZ63" s="28"/>
     </row>
-    <row r="64" spans="1:702" s="26" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:702" s="26" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
+        <v>61</v>
+      </c>
+      <c r="B64" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="113"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="113"/>
+      <c r="G64" s="113"/>
+      <c r="H64" s="113"/>
+      <c r="I64" s="113"/>
+      <c r="J64" s="113"/>
+      <c r="K64" s="113"/>
       <c r="L64" s="41">
         <f>SUM(L60:L63)</f>
         <v>64</v>
@@ -4555,64 +4574,64 @@
       <c r="N64" s="25"/>
       <c r="ZZ64" s="29"/>
     </row>
-    <row r="65" spans="1:702" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="89" t="str">
+    <row r="65" spans="1:702" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="114" t="str">
         <f>Tématerv!H2</f>
         <v>Vizi Fanni</v>
       </c>
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="93" t="str">
+      <c r="B65" s="115"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="118" t="str">
         <f>Tématerv!L2</f>
         <v>FOF695</v>
       </c>
-      <c r="G65" s="94"/>
-      <c r="H65" s="94"/>
-      <c r="I65" s="95"/>
-      <c r="J65" s="99">
+      <c r="G65" s="119"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="120"/>
+      <c r="J65" s="124">
         <v>0.5</v>
       </c>
-      <c r="K65" s="100"/>
-      <c r="L65" s="83">
+      <c r="K65" s="125"/>
+      <c r="L65" s="109">
         <f>IFERROR(MAX(MIN(M64*MAX(MIN(J65,32/M64),1-32/M64),32)+M60,1),1)</f>
         <v>1</v>
       </c>
-      <c r="M65" s="84"/>
+      <c r="M65" s="110"/>
       <c r="N65" s="43"/>
       <c r="ZZ65"/>
     </row>
-    <row r="66" spans="1:702" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="91" t="str">
+    <row r="66" spans="1:702" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="116" t="str">
         <f>Tématerv!H3</f>
         <v>Molnár Zsófia</v>
       </c>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="96" t="str">
+      <c r="B66" s="117"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="121" t="str">
         <f>Tématerv!L3</f>
         <v>VID6M2</v>
       </c>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="101">
+      <c r="G66" s="122"/>
+      <c r="H66" s="122"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="126">
         <f>1-J65</f>
         <v>0.5</v>
       </c>
-      <c r="K66" s="102"/>
-      <c r="L66" s="85">
+      <c r="K66" s="127"/>
+      <c r="L66" s="111">
         <f>IFERROR(MAX(MIN(M64*MAX(J66,1-32/M64),32)+M60,1),1)</f>
         <v>1</v>
       </c>
-      <c r="M66" s="86"/>
+      <c r="M66" s="112"/>
       <c r="N66" s="43"/>
       <c r="ZZ66"/>
     </row>
-    <row r="67" spans="1:702" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:702" x14ac:dyDescent="0.45">
       <c r="A67" s="22"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -4627,242 +4646,242 @@
       <c r="L67"/>
       <c r="M67"/>
     </row>
-    <row r="68" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="23"/>
       <c r="N68" s="12"/>
       <c r="ZZ68" s="30"/>
     </row>
-    <row r="69" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="23"/>
       <c r="N69" s="12"/>
       <c r="ZZ69" s="30"/>
     </row>
-    <row r="70" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="23"/>
       <c r="N70" s="12"/>
       <c r="ZZ70" s="30"/>
     </row>
-    <row r="71" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="23"/>
       <c r="N71" s="12"/>
       <c r="ZZ71" s="30"/>
     </row>
-    <row r="72" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="23"/>
       <c r="N72" s="12"/>
       <c r="ZZ72" s="30"/>
     </row>
-    <row r="73" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="23"/>
       <c r="N73" s="12"/>
       <c r="ZZ73" s="30"/>
     </row>
-    <row r="74" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="23"/>
       <c r="N74" s="12"/>
       <c r="ZZ74" s="30"/>
     </row>
-    <row r="75" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="23"/>
       <c r="N75" s="12"/>
       <c r="ZZ75" s="30"/>
     </row>
-    <row r="76" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="23"/>
       <c r="N76" s="12"/>
       <c r="ZZ76" s="30"/>
     </row>
-    <row r="77" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="23"/>
       <c r="N77" s="12"/>
       <c r="ZZ77" s="30"/>
     </row>
-    <row r="78" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="23"/>
       <c r="N78" s="12"/>
       <c r="ZZ78" s="30"/>
     </row>
-    <row r="79" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="23"/>
       <c r="N79" s="12"/>
       <c r="ZZ79" s="30"/>
     </row>
-    <row r="80" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="23"/>
       <c r="N80" s="12"/>
       <c r="ZZ80" s="30"/>
     </row>
-    <row r="81" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="23"/>
       <c r="N81" s="12"/>
       <c r="ZZ81" s="30"/>
     </row>
-    <row r="82" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="23"/>
       <c r="N82" s="12"/>
       <c r="ZZ82" s="30"/>
     </row>
-    <row r="83" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="23"/>
       <c r="N83" s="12"/>
       <c r="ZZ83" s="30"/>
     </row>
-    <row r="84" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="23"/>
       <c r="N84" s="12"/>
       <c r="ZZ84" s="30"/>
     </row>
-    <row r="85" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="23"/>
       <c r="N85" s="12"/>
       <c r="ZZ85" s="30"/>
     </row>
-    <row r="86" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="23"/>
       <c r="N86" s="12"/>
       <c r="ZZ86" s="30"/>
     </row>
-    <row r="87" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="23"/>
       <c r="N87" s="12"/>
       <c r="ZZ87" s="30"/>
     </row>
-    <row r="88" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="23"/>
       <c r="N88" s="12"/>
       <c r="ZZ88" s="30"/>
     </row>
-    <row r="89" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="23"/>
       <c r="N89" s="12"/>
       <c r="ZZ89" s="30"/>
     </row>
-    <row r="90" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="23"/>
       <c r="N90" s="12"/>
       <c r="ZZ90" s="30"/>
     </row>
-    <row r="91" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="23"/>
       <c r="N91" s="12"/>
       <c r="ZZ91" s="30"/>
     </row>
-    <row r="92" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="23"/>
       <c r="N92" s="12"/>
       <c r="ZZ92" s="30"/>
     </row>
-    <row r="93" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="23"/>
       <c r="N93" s="12"/>
       <c r="ZZ93" s="30"/>
     </row>
-    <row r="94" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="23"/>
       <c r="N94" s="12"/>
       <c r="ZZ94" s="30"/>
     </row>
-    <row r="95" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="23"/>
       <c r="N95" s="12"/>
       <c r="ZZ95" s="30"/>
     </row>
-    <row r="96" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="23"/>
       <c r="N96" s="12"/>
       <c r="ZZ96" s="30"/>
     </row>
-    <row r="97" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="23"/>
       <c r="N97" s="12"/>
       <c r="ZZ97" s="30"/>
     </row>
-    <row r="98" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="23"/>
       <c r="N98" s="12"/>
       <c r="ZZ98" s="30"/>
     </row>
-    <row r="99" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="23"/>
       <c r="N99" s="12"/>
       <c r="ZZ99" s="30"/>
     </row>
-    <row r="100" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="23"/>
       <c r="N100" s="12"/>
       <c r="ZZ100" s="30"/>
     </row>
-    <row r="101" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="23"/>
       <c r="N101" s="12"/>
       <c r="ZZ101" s="30"/>
     </row>
-    <row r="102" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="23"/>
       <c r="N102" s="12"/>
       <c r="ZZ102" s="30"/>
     </row>
-    <row r="103" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="23"/>
       <c r="N103" s="12"/>
       <c r="ZZ103" s="30"/>
     </row>
-    <row r="104" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="23"/>
       <c r="N104" s="12"/>
       <c r="ZZ104" s="30"/>
     </row>
-    <row r="105" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="23"/>
       <c r="N105" s="12"/>
       <c r="ZZ105" s="30"/>
     </row>
-    <row r="106" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="23"/>
       <c r="N106" s="12"/>
       <c r="ZZ106" s="30"/>
     </row>
-    <row r="107" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="23"/>
       <c r="N107" s="12"/>
       <c r="ZZ107" s="30"/>
     </row>
-    <row r="108" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="23"/>
       <c r="N108" s="12"/>
       <c r="ZZ108" s="30"/>
     </row>
-    <row r="109" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="23"/>
       <c r="N109" s="12"/>
       <c r="ZZ109" s="30"/>
     </row>
-    <row r="110" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="23"/>
       <c r="N110" s="12"/>
       <c r="ZZ110" s="30"/>
     </row>
-    <row r="111" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="23"/>
       <c r="N111" s="12"/>
       <c r="ZZ111" s="30"/>
     </row>
-    <row r="112" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="23"/>
       <c r="N112" s="12"/>
       <c r="ZZ112" s="30"/>
     </row>
-    <row r="113" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="23"/>
       <c r="N113" s="12"/>
       <c r="ZZ113" s="30"/>
     </row>
-    <row r="114" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="23"/>
       <c r="N114" s="12"/>
       <c r="ZZ114" s="30"/>
     </row>
-    <row r="115" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:702" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="23"/>
       <c r="N115" s="12"/>
       <c r="ZZ115" s="30"/>
@@ -4870,51 +4889,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hQBWq2llccusRKfectleCJc9JCuhKAQQOH19x9MMgq8PuwKK5QwJ5m3cqKyaUv9xBtAbxtjbPuE1j/T4ALj1hQ==" saltValue="BAu2ZqAVnA7f0B7P97286A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="72">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B60:K60"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B55:K55"/>
-    <mergeCell ref="B56:K56"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="B62:K62"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B64:K64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J66:K66"/>
     <mergeCell ref="B46:K46"/>
     <mergeCell ref="B54:K54"/>
     <mergeCell ref="B3:L3"/>
@@ -4931,17 +4916,51 @@
     <mergeCell ref="B41:K41"/>
     <mergeCell ref="B43:K43"/>
     <mergeCell ref="B44:K44"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="B62:K62"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B64:K64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="B60:K60"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B56:K56"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="A60:A66 L65:L66 N65:XFD66">
     <cfRule type="expression" dxfId="43" priority="13">
@@ -5073,193 +5092,193 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="12" max="13" width="9.7265625" customWidth="1"/>
-    <col min="14" max="14" width="84.7265625" customWidth="1"/>
+    <col min="12" max="13" width="9.73046875" customWidth="1"/>
+    <col min="14" max="14" width="84.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="118"/>
+    <row r="1" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
       <c r="N1" s="10"/>
       <c r="ZZ1" s="27"/>
     </row>
-    <row r="2" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
       <c r="M2" s="44"/>
       <c r="N2" s="13"/>
       <c r="ZZ2" s="28"/>
     </row>
-    <row r="3" spans="1:702" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:702" s="6" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="104" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="106"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="45"/>
       <c r="N3" s="13"/>
       <c r="ZZ3" s="28"/>
     </row>
-    <row r="4" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="106"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="92"/>
       <c r="M4" s="45"/>
       <c r="N4" s="10"/>
       <c r="ZZ4" s="27"/>
     </row>
-    <row r="5" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="106"/>
+        <v>27</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
       <c r="M5" s="45"/>
       <c r="N5" s="10"/>
       <c r="ZZ5" s="27"/>
     </row>
-    <row r="6" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="106"/>
+        <v>31</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="92"/>
       <c r="M6" s="45"/>
       <c r="N6" s="10"/>
       <c r="ZZ6" s="27"/>
     </row>
-    <row r="7" spans="1:702" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:702" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="125" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
+        <v>116</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="46"/>
       <c r="N7" s="10"/>
       <c r="ZZ7" s="27"/>
     </row>
-    <row r="8" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="122" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="124"/>
+    <row r="8" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="98"/>
       <c r="N8" s="10"/>
       <c r="ZZ8" s="27"/>
     </row>
-    <row r="9" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="65" t="str">
+        <v>33</v>
+      </c>
+      <c r="B9" s="48" t="str">
         <f>Tématerv!B21</f>
         <v>Bejelentkezés / regisztráció / profil</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="103"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="99"/>
       <c r="L9" s="2">
         <f>SUM(L11:L17)</f>
         <v>21</v>
@@ -5271,42 +5290,42 @@
       <c r="N9" s="10"/>
       <c r="ZZ9" s="27"/>
     </row>
-    <row r="10" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="108" t="str">
+    <row r="10" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="93" t="str">
         <f>Tématerv!A22</f>
         <v>A felhasználó az oldalra tud regisztrálni, illetve be tud jelentkezni. A profil oldalon a felhasználó megtekintheti az adatait.</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="110"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="95"/>
       <c r="N10" s="10"/>
       <c r="ZZ10" s="27"/>
     </row>
-    <row r="11" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
+        <v>34</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
       <c r="L11" s="7">
         <v>5</v>
       </c>
@@ -5314,22 +5333,22 @@
       <c r="N11" s="13"/>
       <c r="ZZ11" s="28"/>
     </row>
-    <row r="12" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
+        <v>35</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
       <c r="L12" s="7">
         <v>3</v>
       </c>
@@ -5337,22 +5356,22 @@
       <c r="N12" s="11"/>
       <c r="ZZ12" s="28"/>
     </row>
-    <row r="13" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
+        <v>36</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
       <c r="L13" s="7">
         <v>3</v>
       </c>
@@ -5360,22 +5379,22 @@
       <c r="N13" s="11"/>
       <c r="ZZ13" s="28"/>
     </row>
-    <row r="14" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
+        <v>37</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
       <c r="L14" s="7">
         <v>1</v>
       </c>
@@ -5383,22 +5402,22 @@
       <c r="N14" s="11"/>
       <c r="ZZ14" s="28"/>
     </row>
-    <row r="15" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
+        <v>93</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
       <c r="L15" s="7">
         <v>3</v>
       </c>
@@ -5406,22 +5425,22 @@
       <c r="N15" s="11"/>
       <c r="ZZ15" s="28"/>
     </row>
-    <row r="16" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
+        <v>94</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
       <c r="L16" s="7">
         <v>3</v>
       </c>
@@ -5429,22 +5448,22 @@
       <c r="N16" s="11"/>
       <c r="ZZ16" s="28"/>
     </row>
-    <row r="17" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="107" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
+        <v>99</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
       <c r="L17" s="9">
         <v>3</v>
       </c>
@@ -5452,23 +5471,23 @@
       <c r="N17" s="11"/>
       <c r="ZZ17" s="28"/>
     </row>
-    <row r="18" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="65" t="str">
+        <v>17</v>
+      </c>
+      <c r="B18" s="48" t="str">
         <f>Tématerv!B23</f>
         <v>Értékelés</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="103"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="99"/>
       <c r="L18" s="2">
         <f>SUM(L20:L23)</f>
         <v>5.5</v>
@@ -5480,42 +5499,42 @@
       <c r="N18" s="10"/>
       <c r="ZZ18" s="27"/>
     </row>
-    <row r="19" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="108" t="str">
+    <row r="19" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="93" t="str">
         <f>Tématerv!A24</f>
-        <v>Itt lehet likel-ni illetve értékelni a filmeket és a színészeket is. Lehet kommentelni is bizonyos értékelések alá, beszélgetést elindítani.</v>
-      </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="110"/>
+        <v>Lehet lájkolni, illetve értékelni a filmeket. A felhasználó a saját értékeléseit tudja törölni, módosítani.</v>
+      </c>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="95"/>
       <c r="N19" s="10"/>
       <c r="ZZ19" s="27"/>
     </row>
-    <row r="20" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
+        <v>38</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
       <c r="L20" s="7">
         <v>1</v>
       </c>
@@ -5523,22 +5542,22 @@
       <c r="N20" s="11"/>
       <c r="ZZ20" s="28"/>
     </row>
-    <row r="21" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
       <c r="L21" s="7">
         <v>1</v>
       </c>
@@ -5546,22 +5565,22 @@
       <c r="N21" s="11"/>
       <c r="ZZ21" s="28"/>
     </row>
-    <row r="22" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
+        <v>40</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
       <c r="L22" s="7">
         <v>2.5</v>
       </c>
@@ -5569,22 +5588,22 @@
       <c r="N22" s="11"/>
       <c r="ZZ22" s="28"/>
     </row>
-    <row r="23" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
+        <v>41</v>
+      </c>
+      <c r="B23" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
       <c r="L23" s="9">
         <v>1</v>
       </c>
@@ -5592,23 +5611,23 @@
       <c r="N23" s="11"/>
       <c r="ZZ23" s="28"/>
     </row>
-    <row r="24" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="65" t="str">
+        <v>18</v>
+      </c>
+      <c r="B24" s="48" t="str">
         <f>Tématerv!B25</f>
-        <v>Saját fiók</v>
-      </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="103"/>
+        <v xml:space="preserve">Chat </v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="99"/>
       <c r="L24" s="2">
         <f>SUM(L26:L29)</f>
         <v>5.5</v>
@@ -5620,42 +5639,42 @@
       <c r="N24" s="10"/>
       <c r="ZZ24" s="27"/>
     </row>
-    <row r="25" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="108" t="str">
+    <row r="25" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="93" t="str">
         <f>Tématerv!A26</f>
-        <v>Itt tudjuk megtekinteni a korábbi tevékenységeinket és akár módosítani is tudunk rajtuk.</v>
-      </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="110"/>
+        <v>Lehet privát üzenetet küldeni, meg tudjuk tekinteni a beszélgetéseinket, tudunk üzenetet, beszélgetést törölni.</v>
+      </c>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="95"/>
       <c r="N25" s="10"/>
       <c r="ZZ25" s="27"/>
     </row>
-    <row r="26" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
+        <v>42</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
       <c r="L26" s="7">
         <v>1</v>
       </c>
@@ -5663,22 +5682,22 @@
       <c r="N26" s="11"/>
       <c r="ZZ26" s="28"/>
     </row>
-    <row r="27" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
+        <v>43</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
       <c r="L27" s="7">
         <v>1</v>
       </c>
@@ -5686,22 +5705,22 @@
       <c r="N27" s="11"/>
       <c r="ZZ27" s="28"/>
     </row>
-    <row r="28" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
+        <v>44</v>
+      </c>
+      <c r="B28" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
       <c r="L28" s="7">
         <v>2.5</v>
       </c>
@@ -5709,22 +5728,22 @@
       <c r="N28" s="11"/>
       <c r="ZZ28" s="28"/>
     </row>
-    <row r="29" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
+        <v>45</v>
+      </c>
+      <c r="B29" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
       <c r="L29" s="9">
         <v>1</v>
       </c>
@@ -5732,23 +5751,23 @@
       <c r="N29" s="11"/>
       <c r="ZZ29" s="28"/>
     </row>
-    <row r="30" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="65" t="str">
+        <v>19</v>
+      </c>
+      <c r="B30" s="48" t="str">
         <f>Tématerv!B27</f>
         <v>Admin funkciók</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="103"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="99"/>
       <c r="L30" s="2">
         <f>SUM(L32:L35)</f>
         <v>5.5</v>
@@ -5760,42 +5779,42 @@
       <c r="N30" s="10"/>
       <c r="ZZ30" s="27"/>
     </row>
-    <row r="31" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="108" t="str">
+    <row r="31" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="93" t="str">
         <f>Tématerv!A28</f>
         <v>Itt lehet moderálni az oldalon történő tevékenységeket, illetve törölni is lehet akár filmeket, vagy hozzáadni újakat.</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="110"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="95"/>
       <c r="N31" s="10"/>
       <c r="ZZ31" s="27"/>
     </row>
-    <row r="32" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
+        <v>46</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
       <c r="L32" s="7">
         <v>1</v>
       </c>
@@ -5803,22 +5822,22 @@
       <c r="N32" s="11"/>
       <c r="ZZ32" s="28"/>
     </row>
-    <row r="33" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
+        <v>47</v>
+      </c>
+      <c r="B33" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
       <c r="L33" s="7">
         <v>1</v>
       </c>
@@ -5826,22 +5845,22 @@
       <c r="N33" s="11"/>
       <c r="ZZ33" s="28"/>
     </row>
-    <row r="34" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
+        <v>48</v>
+      </c>
+      <c r="B34" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
       <c r="L34" s="7">
         <v>2.5</v>
       </c>
@@ -5849,22 +5868,22 @@
       <c r="N34" s="11"/>
       <c r="ZZ34" s="28"/>
     </row>
-    <row r="35" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
+        <v>49</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
       <c r="L35" s="9">
         <v>1</v>
       </c>
@@ -5872,23 +5891,23 @@
       <c r="N35" s="11"/>
       <c r="ZZ35" s="28"/>
     </row>
-    <row r="36" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="65" t="str">
+        <v>28</v>
+      </c>
+      <c r="B36" s="48" t="str">
         <f>"Gyakorlatvezetői funkció: "&amp;Tématerv!B29</f>
         <v>Gyakorlatvezetői funkció: ??? (gyakorlatvezető tölti ki)</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="103"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="99"/>
       <c r="L36" s="2">
         <f>SUM(L38:L41)</f>
         <v>11.5</v>
@@ -5900,42 +5919,42 @@
       <c r="N36" s="10"/>
       <c r="ZZ36" s="27"/>
     </row>
-    <row r="37" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="108" t="str">
+    <row r="37" spans="1:702" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="93" t="str">
         <f>Tématerv!A30</f>
         <v>(gyakorlatvezető tölti ki)</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="110"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="95"/>
       <c r="N37" s="10"/>
       <c r="ZZ37" s="27"/>
     </row>
-    <row r="38" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
+        <v>50</v>
+      </c>
+      <c r="B38" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
       <c r="L38" s="7">
         <v>2.5</v>
       </c>
@@ -5943,22 +5962,22 @@
       <c r="N38" s="11"/>
       <c r="ZZ38" s="28"/>
     </row>
-    <row r="39" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
+        <v>51</v>
+      </c>
+      <c r="B39" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
       <c r="L39" s="7">
         <v>2</v>
       </c>
@@ -5966,22 +5985,22 @@
       <c r="N39" s="11"/>
       <c r="ZZ39" s="28"/>
     </row>
-    <row r="40" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
+        <v>52</v>
+      </c>
+      <c r="B40" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
       <c r="L40" s="7">
         <v>5</v>
       </c>
@@ -5989,22 +6008,22 @@
       <c r="N40" s="11"/>
       <c r="ZZ40" s="28"/>
     </row>
-    <row r="41" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
+        <v>53</v>
+      </c>
+      <c r="B41" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
       <c r="L41" s="9">
         <v>2</v>
       </c>
@@ -6012,41 +6031,41 @@
       <c r="N41" s="11"/>
       <c r="ZZ41" s="28"/>
     </row>
-    <row r="42" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="115"/>
+    <row r="42" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="106"/>
       <c r="N42" s="10"/>
       <c r="ZZ42" s="28"/>
     </row>
-    <row r="43" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="103"/>
+      <c r="B43" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="99"/>
       <c r="L43" s="2">
         <f>SUM(ZZ44:ZZ47)</f>
         <v>11</v>
@@ -6058,24 +6077,24 @@
       <c r="N43" s="10"/>
       <c r="ZZ43" s="28"/>
     </row>
-    <row r="44" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
+        <v>20</v>
+      </c>
+      <c r="B44" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
       <c r="L44" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M44" s="45"/>
       <c r="N44" s="11"/>
@@ -6084,24 +6103,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
+        <v>21</v>
+      </c>
+      <c r="B45" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
       <c r="L45" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M45" s="45"/>
       <c r="N45" s="11"/>
@@ -6110,24 +6129,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
+        <v>22</v>
+      </c>
+      <c r="B46" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
       <c r="L46" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M46" s="45"/>
       <c r="N46" s="11"/>
@@ -6136,24 +6155,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
+        <v>29</v>
+      </c>
+      <c r="B47" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
       <c r="L47" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M47" s="46"/>
       <c r="N47" s="11"/>
@@ -6162,44 +6181,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="50"/>
+    <row r="48" spans="1:702" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="68"/>
       <c r="N48" s="10"/>
       <c r="ZZ48" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:702" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="103"/>
+      <c r="B49" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="99"/>
       <c r="L49" s="2">
         <f>SUM(L50:L53)</f>
         <v>4</v>
@@ -6211,22 +6230,22 @@
       <c r="N49" s="10"/>
       <c r="ZZ49" s="28"/>
     </row>
-    <row r="50" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="104" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="106"/>
+        <v>23</v>
+      </c>
+      <c r="B50" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="92"/>
       <c r="L50" s="7">
         <v>1</v>
       </c>
@@ -6237,22 +6256,22 @@
       <c r="N50" s="11"/>
       <c r="ZZ50" s="28"/>
     </row>
-    <row r="51" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="106"/>
+        <v>24</v>
+      </c>
+      <c r="B51" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="92"/>
       <c r="L51" s="7">
         <v>1</v>
       </c>
@@ -6263,22 +6282,22 @@
       <c r="N51" s="11"/>
       <c r="ZZ51" s="28"/>
     </row>
-    <row r="52" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="106"/>
+        <v>25</v>
+      </c>
+      <c r="B52" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="92"/>
       <c r="L52" s="14">
         <v>1</v>
       </c>
@@ -6286,22 +6305,22 @@
       <c r="N52" s="11"/>
       <c r="ZZ52" s="28"/>
     </row>
-    <row r="53" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="125" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="127"/>
+        <v>30</v>
+      </c>
+      <c r="B53" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="103"/>
       <c r="L53" s="9">
         <v>1</v>
       </c>
@@ -6309,41 +6328,41 @@
       <c r="N53" s="11"/>
       <c r="ZZ53" s="28"/>
     </row>
-    <row r="54" spans="1:702" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="50"/>
+    <row r="54" spans="1:702" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="68"/>
       <c r="N54" s="10"/>
       <c r="ZZ54" s="27"/>
     </row>
-    <row r="55" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
+      <c r="B55" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="86"/>
       <c r="L55" s="7">
         <v>0</v>
       </c>
@@ -6354,22 +6373,22 @@
       <c r="N55" s="11"/>
       <c r="ZZ55" s="28"/>
     </row>
-    <row r="56" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
+      <c r="B56" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="86"/>
       <c r="L56" s="7">
         <f>SUM(L9,L18,L24,L30,L36)</f>
         <v>49</v>
@@ -6381,22 +6400,22 @@
       <c r="N56" s="11"/>
       <c r="ZZ56" s="28"/>
     </row>
-    <row r="57" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
+      <c r="B57" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="86"/>
       <c r="L57" s="7">
         <f>L43</f>
         <v>11</v>
@@ -6408,22 +6427,22 @@
       <c r="N57" s="11"/>
       <c r="ZZ57" s="28"/>
     </row>
-    <row r="58" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:702" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
+      <c r="B58" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="86"/>
       <c r="L58" s="7">
         <f>L49</f>
         <v>4</v>
@@ -6435,22 +6454,22 @@
       <c r="N58" s="11"/>
       <c r="ZZ58" s="28"/>
     </row>
-    <row r="59" spans="1:702" s="26" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:702" s="26" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="128"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="128"/>
-      <c r="F59" s="128"/>
-      <c r="G59" s="128"/>
-      <c r="H59" s="128"/>
-      <c r="I59" s="128"/>
-      <c r="J59" s="128"/>
-      <c r="K59" s="128"/>
+        <v>61</v>
+      </c>
+      <c r="B59" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="132"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="132"/>
+      <c r="G59" s="132"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="132"/>
+      <c r="J59" s="132"/>
+      <c r="K59" s="132"/>
       <c r="L59" s="36">
         <f>SUM(L55:L58)</f>
         <v>64</v>
@@ -6462,69 +6481,107 @@
       <c r="N59" s="25"/>
       <c r="ZZ59" s="29"/>
     </row>
-    <row r="60" spans="1:702" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="89" t="str">
+    <row r="60" spans="1:702" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="114" t="str">
         <f>Tématerv!H2</f>
         <v>Vizi Fanni</v>
       </c>
-      <c r="B60" s="90"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="93" t="str">
+      <c r="B60" s="115"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="118" t="str">
         <f>Tématerv!L2</f>
         <v>FOF695</v>
       </c>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="95"/>
-      <c r="J60" s="99">
+      <c r="G60" s="119"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="124">
         <v>0.5</v>
       </c>
-      <c r="K60" s="100"/>
-      <c r="L60" s="129">
+      <c r="K60" s="125"/>
+      <c r="L60" s="128">
         <f>MAX(MIN(M59*MAX(MIN(J60,32/M59),1-32/M59),32)+M55,1)</f>
         <v>1</v>
       </c>
-      <c r="M60" s="130"/>
-    </row>
-    <row r="61" spans="1:702" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="91" t="str">
+      <c r="M60" s="129"/>
+    </row>
+    <row r="61" spans="1:702" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="116" t="str">
         <f>Tématerv!H3</f>
         <v>Molnár Zsófia</v>
       </c>
-      <c r="B61" s="92"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="96" t="str">
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="121" t="str">
         <f>Tématerv!L3</f>
         <v>VID6M2</v>
       </c>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="98"/>
-      <c r="J61" s="101">
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="126">
         <f>1-J60</f>
         <v>0.5</v>
       </c>
-      <c r="K61" s="102"/>
-      <c r="L61" s="131">
+      <c r="K61" s="127"/>
+      <c r="L61" s="130">
         <f>MAX(MIN(M59*MAX(J61,1-32/M59),32)+M55,1)</f>
         <v>1</v>
       </c>
-      <c r="M61" s="132"/>
+      <c r="M61" s="131"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fEFnX1kMORo6RKgrR7m79SKWnqfOAjDZM0UY/S26y1BZ/E1r0I5neeJYkQexqRK/bDgQLCcprBqBkHbSHMBTTQ==" saltValue="g7RHP+wWjNd/bF/eDIuXcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="67">
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="B59:K59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B56:K56"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K33"/>
     <mergeCell ref="B22:K22"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="B9:K9"/>
@@ -6540,51 +6597,13 @@
     <mergeCell ref="B14:K14"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="A54:M54"/>
-    <mergeCell ref="B55:K55"/>
-    <mergeCell ref="B56:K56"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="B59:K59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="A55:A61 L60:L61">
     <cfRule type="expression" dxfId="22" priority="27">
